--- a/biology/Zoologie/Conus_(coquillage)/Conus_(coquillage).xlsx
+++ b/biology/Zoologie/Conus_(coquillage)/Conus_(coquillage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cônes
-Conus est un genre de mollusques gastéropodes prosobranches de la famille des Conidae, rassemblant plus de 1 000 espèces de « coquillages »[1], parmi lesquelles de nombreuses espèces fossiles. La plupart de ces espèces sont venimeuses et les plus grosses sont dangereuses pour l'humain.
+Conus est un genre de mollusques gastéropodes prosobranches de la famille des Conidae, rassemblant plus de 1 000 espèces de « coquillages », parmi lesquelles de nombreuses espèces fossiles. La plupart de ces espèces sont venimeuses et les plus grosses sont dangereuses pour l'humain.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des mollusques gastéropodes de taille moyenne à grande, de forme allongée et plus ou moins conique suivant les espèces et qui présentent souvent des ornementations spectaculaires sur leur coquille pour lesquelles ils sont recherchés. L'apex de la coquille peut être arrondi, plat, bombé, pointu ou présenter plusieurs pointes, qui aident à déterminer les nombreuses espèces.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est assez typique des eaux chaudes des mers et des océans tropicaux, notamment des écosystèmes coralliens. Cependant, quelques espèces sont adaptées à des environnements tempérés tels que la côte sud africaine autour du cap de Bonne-Espérance ou les eaux plus froides de Californie du sud, et il en existe quelques espèces (non dangereuses) en Méditerranée.
 Ce sont presque toutes des espèces sciaphiles : les cônes vivent dissimulés pendant la journée, enfouis dans le sable ou cachés sous des roches, et ne sortent que de nuit pour se nourrir. Il est donc relativement rare de croiser un spécimen vivant pendant une baignade ou une plongée de jour.
@@ -575,15 +591,17 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces animaux sont des chasseurs nocturnes, qui se nourrissent, suivant l'espèce, d'invertébrés ou de petits poissons, qu'ils chassent à l'affût. Ils attendent immobiles qu'une proie s'approche, et ils éjectent alors par leur siphon une dent radulaire en forme de harpon, enduite de venin (conotoxine[2]) qui paralyse la victime et la tue très rapidement. Ils l'ingèrent ensuite par leur bouche extensible et se cachent pour digérer.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces animaux sont des chasseurs nocturnes, qui se nourrissent, suivant l'espèce, d'invertébrés ou de petits poissons, qu'ils chassent à l'affût. Ils attendent immobiles qu'une proie s'approche, et ils éjectent alors par leur siphon une dent radulaire en forme de harpon, enduite de venin (conotoxine) qui paralyse la victime et la tue très rapidement. Ils l'ingèrent ensuite par leur bouche extensible et se cachent pour digérer.
 Les cônes connaissent trois types de régimes principaux (pas toujours exclusifs) : vermivores, molluscivores ou piscivores.
-Les vermivores consomment des vers polychètes (nereis, eunicidae)[3] : Conus capitaneus, Conus coronatus, Conus ebraeus, Conus flavidus, Conus imperialis, Conus leopardus, Conus lividus, Conus miles, Conus nussatella, Conus quercinus, Conus striatellus, Conus vexillum, Conus violaceus, Conus virgo[4]...
+Les vermivores consomment des vers polychètes (nereis, eunicidae) : Conus capitaneus, Conus coronatus, Conus ebraeus, Conus flavidus, Conus imperialis, Conus leopardus, Conus lividus, Conus miles, Conus nussatella, Conus quercinus, Conus striatellus, Conus vexillum, Conus violaceus, Conus virgo...
 Les molluscivores consomment principalement d'autres gastéropodes : Conus aulicus, Conus episcopatus, Conus gloriamaris, Conus marmoreus, Conus pennaceus, Conus retifer, Conus textile...
-Les piscivores consomment de petits poissons qui vivent ou passent la nuit près du fond : Conus consors, Conus catus, Conus ermineus, Conus geographus[5], Conus magus[6], Conus mediterraneus, Conus radiatus, Conus tulipa...
+Les piscivores consomment de petits poissons qui vivent ou passent la nuit près du fond : Conus consors, Conus catus, Conus ermineus, Conus geographus, Conus magus, Conus mediterraneus, Conus radiatus, Conus tulipa...
 Certaines espèces ont cependant un régime mixte ou opportuniste, comme Conus striatus (mollusco-piscivore).
-Les cônes consommant de grosses proies ont besoin d'un venin extrêmement puissant pour figer leurs victimes sur place sans qu'elles puissent avoir le temps de s'éloigner, ce qui réduirait les chances du mollusque de les atteindre. Les cônes vivants doivent donc être manipulés avec précaution ou pas manipulés du tout si l'on ne connaît pas l'espèce. Généralement, les cônes de petite taille ont une piqûre guère plus douloureuse que celle d'une abeille mais le venin de certaines grandes espèces tropicales peut être fatal à l'homme : il entraîne la paralysie (notamment des muscles respiratoires), puis la mort, dans 70 % des cas humains, en moins de deux heures. Ce venin fait l'objet d'études par des équipes de biochimistes, notamment l'équipe de Lourdes Cruz aux Philippines[7]. Les espèces les plus dangereuses pour l'humain sont Conus aulicus, Conus aureus, Conus consors, Conus geographus (venin potentiellement létal), Conus magnificus, Conus magus, Conus marmoreus, Conus obscurus, Conus pennaceus, Conus striatus, Conus textile (venin potentiellement létal) et Conus tulipa (liste non exhaustive). Ce sont pour la plupart des espèces brunes ornées de triangles blancs, même si cette robe peut aussi se retrouver chez des espèces beaucoup moins dangereuses. 
+Les cônes consommant de grosses proies ont besoin d'un venin extrêmement puissant pour figer leurs victimes sur place sans qu'elles puissent avoir le temps de s'éloigner, ce qui réduirait les chances du mollusque de les atteindre. Les cônes vivants doivent donc être manipulés avec précaution ou pas manipulés du tout si l'on ne connaît pas l'espèce. Généralement, les cônes de petite taille ont une piqûre guère plus douloureuse que celle d'une abeille mais le venin de certaines grandes espèces tropicales peut être fatal à l'homme : il entraîne la paralysie (notamment des muscles respiratoires), puis la mort, dans 70 % des cas humains, en moins de deux heures. Ce venin fait l'objet d'études par des équipes de biochimistes, notamment l'équipe de Lourdes Cruz aux Philippines. Les espèces les plus dangereuses pour l'humain sont Conus aulicus, Conus aureus, Conus consors, Conus geographus (venin potentiellement létal), Conus magnificus, Conus magus, Conus marmoreus, Conus obscurus, Conus pennaceus, Conus striatus, Conus textile (venin potentiellement létal) et Conus tulipa (liste non exhaustive). Ce sont pour la plupart des espèces brunes ornées de triangles blancs, même si cette robe peut aussi se retrouver chez des espèces beaucoup moins dangereuses. 
 			Conus aulicus
 			Conus aureus
 			Conus consors
@@ -622,9 +640,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (21 octobre 2023)[1] (les espèces fossiles sont signalées par une obèle †) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (21 octobre 2023) (les espèces fossiles sont signalées par une obèle †) :
 Conus abbas Hwass, 1792
 Conus abbreviatus Reeve, 1843
 Conus abrolhosensis Petuch, 1987
@@ -1550,7 +1570,7 @@
 Conus tokunagai Otuka, 1934 †
 Conus tonisii (Petuch &amp; R. F. Myers, 2014)
 Conus tostesi Petuch, 1986
-Conus totoi (M. A. Lima &amp; T. Cossignani,</t>
+Conus totoi (M. A. Lima &amp; T. Cossignani, 20</t>
         </is>
       </c>
     </row>
@@ -1578,9 +1598,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Conus admet de nombreux synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Conus admet de nombreux synonymes :
 Afonsoconus J. K. Tucker &amp; Tenorio, 2013
 Africonus Petuch, 1975
 Afroconus Petuch, 1975
